--- a/public/data/yield_loss/yield_table_malawi.xlsx
+++ b/public/data/yield_loss/yield_table_malawi.xlsx
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>15.42</v>
+        <v>15.41</v>
       </c>
       <c r="G33" t="n">
         <v>0.23</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>14.61</v>
+        <v>14.6</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>40.12</v>
+        <v>40.1</v>
       </c>
       <c r="G90" t="n">
         <v>0.15</v>
@@ -9011,7 +9011,7 @@
         <v>4.3</v>
       </c>
       <c r="L90" t="n">
-        <v>203.37</v>
+        <v>203.36</v>
       </c>
       <c r="M90" t="n">
         <v>0.47</v>
@@ -13633,13 +13633,13 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>42.15</v>
+        <v>41.57</v>
       </c>
       <c r="G148" t="n">
         <v>6.94</v>
       </c>
       <c r="H148" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -13648,19 +13648,19 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="L148" t="n">
-        <v>48.64</v>
+        <v>47.93</v>
       </c>
       <c r="M148" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="N148" t="n">
         <v>337.28</v>
       </c>
       <c r="O148" t="n">
-        <v>28.04</v>
+        <v>27.63</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>6.18</v>
       </c>
       <c r="U148" t="n">
-        <v>8.27</v>
+        <v>8.17</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -14193,13 +14193,13 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>75.26</v>
+        <v>74.69</v>
       </c>
       <c r="G155" t="n">
         <v>7.02</v>
       </c>
       <c r="H155" t="n">
-        <v>13.87</v>
+        <v>13.79</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -14208,10 +14208,10 @@
         <v>1.12</v>
       </c>
       <c r="K155" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L155" t="n">
-        <v>99.34</v>
+        <v>98.63</v>
       </c>
       <c r="M155" t="n">
         <v>0.47</v>
@@ -14220,7 +14220,7 @@
         <v>396.39</v>
       </c>
       <c r="O155" t="n">
-        <v>58.88</v>
+        <v>58.48</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -14238,7 +14238,7 @@
         <v>9.43</v>
       </c>
       <c r="U155" t="n">
-        <v>14.01</v>
+        <v>13.92</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -15313,13 +15313,13 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>38.04</v>
+        <v>37.73</v>
       </c>
       <c r="G169" t="n">
         <v>3.02</v>
       </c>
       <c r="H169" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -15331,16 +15331,16 @@
         <v>1.18</v>
       </c>
       <c r="L169" t="n">
-        <v>36.24</v>
+        <v>35.9</v>
       </c>
       <c r="M169" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="N169" t="n">
         <v>3943.75</v>
       </c>
       <c r="O169" t="n">
-        <v>20.88</v>
+        <v>20.7</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
@@ -15358,7 +15358,7 @@
         <v>4.2</v>
       </c>
       <c r="U169" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -16113,13 +16113,13 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>567.67</v>
+        <v>567.85</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -16131,16 +16131,16 @@
         <v>0.03</v>
       </c>
       <c r="L179" t="n">
-        <v>62.29</v>
+        <v>62.68</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N179" t="n">
         <v>141.25</v>
       </c>
       <c r="O179" t="n">
-        <v>9.05</v>
+        <v>9.24</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>8.7</v>
+        <v>8.69</v>
       </c>
       <c r="G214" t="n">
         <v>0.08</v>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>8.68</v>
+        <v>8.65</v>
       </c>
       <c r="M214" t="n">
         <v>0</v>
